--- a/server/src/public/import/import-timekeeping.xlsx
+++ b/server/src/public/import/import-timekeeping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11616"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="12">
   <si>
     <t>STT</t>
   </si>
@@ -47,28 +47,7 @@
     <t>Thời gian ra</t>
   </si>
   <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>ST00</t>
-  </si>
-  <si>
     <t>CHC</t>
-  </si>
-  <si>
-    <t>15/10/2024</t>
-  </si>
-  <si>
-    <t>16/10/2024</t>
-  </si>
-  <si>
-    <t>17/10/2024</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>17:00</t>
   </si>
   <si>
     <t>08:30</t>
@@ -77,16 +56,19 @@
     <t>17:30</t>
   </si>
   <si>
-    <t>07:30</t>
+    <t>Z1</t>
   </si>
   <si>
-    <t>16:30</t>
+    <t>ZT01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,8 +100,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,24 +382,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" customWidth="1"/>
+    <col min="5" max="5" width="16.3984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.09765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,83 +412,1417 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45566</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45567</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45568</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45569</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45570</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45571</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45572</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45573</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45574</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45575</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45576</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45577</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45578</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45579</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45580</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45581</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45582</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45583</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45584</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45585</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45586</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45587</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45588</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45589</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45590</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45591</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45592</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45593</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45594</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45595</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45596</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45597</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45598</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45599</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45600</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45601</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45602</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45603</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45604</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45605</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45606</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45607</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45608</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45609</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45610</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45611</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45612</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45613</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45614</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45615</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45616</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45617</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45618</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45619</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45620</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45621</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45622</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45623</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45624</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45625</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45626</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/server/src/public/import/import-timekeeping.xlsx
+++ b/server/src/public/import/import-timekeeping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11616"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="133">
   <si>
     <t>STT</t>
   </si>
@@ -60,6 +60,369 @@
   </si>
   <si>
     <t>ZT01</t>
+  </si>
+  <si>
+    <t>    9/2/24</t>
+  </si>
+  <si>
+    <t>    9/3/24</t>
+  </si>
+  <si>
+    <t>    9/4/24</t>
+  </si>
+  <si>
+    <t>    9/5/24</t>
+  </si>
+  <si>
+    <t>    9/6/24</t>
+  </si>
+  <si>
+    <t>    9/7/24</t>
+  </si>
+  <si>
+    <t>    9/8/24</t>
+  </si>
+  <si>
+    <t>    9/9/24</t>
+  </si>
+  <si>
+    <t>    9/10/24</t>
+  </si>
+  <si>
+    <t>    9/11/24</t>
+  </si>
+  <si>
+    <t>    9/12/24</t>
+  </si>
+  <si>
+    <t>    9/13/24</t>
+  </si>
+  <si>
+    <t>    9/14/24</t>
+  </si>
+  <si>
+    <t>    9/15/24</t>
+  </si>
+  <si>
+    <t>    9/16/24</t>
+  </si>
+  <si>
+    <t>    9/17/24</t>
+  </si>
+  <si>
+    <t>    9/18/24</t>
+  </si>
+  <si>
+    <t>    9/19/24</t>
+  </si>
+  <si>
+    <t>    9/20/24</t>
+  </si>
+  <si>
+    <t>    9/21/24</t>
+  </si>
+  <si>
+    <t>    9/22/24</t>
+  </si>
+  <si>
+    <t>    9/23/24</t>
+  </si>
+  <si>
+    <t>    9/24/24</t>
+  </si>
+  <si>
+    <t>    9/25/24</t>
+  </si>
+  <si>
+    <t>    9/26/24</t>
+  </si>
+  <si>
+    <t>    9/27/24</t>
+  </si>
+  <si>
+    <t>    9/28/24</t>
+  </si>
+  <si>
+    <t>    9/29/24</t>
+  </si>
+  <si>
+    <t>    9/30/24</t>
+  </si>
+  <si>
+    <t>    9/31/24</t>
+  </si>
+  <si>
+    <t>    10/1/24</t>
+  </si>
+  <si>
+    <t>    10/2/24</t>
+  </si>
+  <si>
+    <t>    10/3/24</t>
+  </si>
+  <si>
+    <t>    10/4/24</t>
+  </si>
+  <si>
+    <t>    10/5/24</t>
+  </si>
+  <si>
+    <t>    10/6/24</t>
+  </si>
+  <si>
+    <t>    10/7/24</t>
+  </si>
+  <si>
+    <t>    10/8/24</t>
+  </si>
+  <si>
+    <t>    10/9/24</t>
+  </si>
+  <si>
+    <t>    10/10/24</t>
+  </si>
+  <si>
+    <t>    10/11/24</t>
+  </si>
+  <si>
+    <t>    10/12/24</t>
+  </si>
+  <si>
+    <t>    10/13/24</t>
+  </si>
+  <si>
+    <t>    10/14/24</t>
+  </si>
+  <si>
+    <t>    10/15/24</t>
+  </si>
+  <si>
+    <t>    10/16/24</t>
+  </si>
+  <si>
+    <t>    10/17/24</t>
+  </si>
+  <si>
+    <t>    10/18/24</t>
+  </si>
+  <si>
+    <t>    10/19/24</t>
+  </si>
+  <si>
+    <t>    10/20/24</t>
+  </si>
+  <si>
+    <t>    10/21/24</t>
+  </si>
+  <si>
+    <t>    10/22/24</t>
+  </si>
+  <si>
+    <t>    10/23/24</t>
+  </si>
+  <si>
+    <t>    10/24/24</t>
+  </si>
+  <si>
+    <t>    10/25/24</t>
+  </si>
+  <si>
+    <t>    10/26/24</t>
+  </si>
+  <si>
+    <t>    10/27/24</t>
+  </si>
+  <si>
+    <t>    10/28/24</t>
+  </si>
+  <si>
+    <t>    10/29/24</t>
+  </si>
+  <si>
+    <t>    10/30/24</t>
+  </si>
+  <si>
+    <t>    11/1/24</t>
+  </si>
+  <si>
+    <t>    11/2/24</t>
+  </si>
+  <si>
+    <t>    11/3/24</t>
+  </si>
+  <si>
+    <t>    11/4/24</t>
+  </si>
+  <si>
+    <t>    11/5/24</t>
+  </si>
+  <si>
+    <t>    11/6/24</t>
+  </si>
+  <si>
+    <t>    11/7/24</t>
+  </si>
+  <si>
+    <t>    11/8/24</t>
+  </si>
+  <si>
+    <t>    11/9/24</t>
+  </si>
+  <si>
+    <t>    11/10/24</t>
+  </si>
+  <si>
+    <t>    11/11/24</t>
+  </si>
+  <si>
+    <t>    11/12/24</t>
+  </si>
+  <si>
+    <t>    11/13/24</t>
+  </si>
+  <si>
+    <t>    11/14/24</t>
+  </si>
+  <si>
+    <t>    11/15/24</t>
+  </si>
+  <si>
+    <t>    11/16/24</t>
+  </si>
+  <si>
+    <t>    11/17/24</t>
+  </si>
+  <si>
+    <t>    11/18/24</t>
+  </si>
+  <si>
+    <t>    11/19/24</t>
+  </si>
+  <si>
+    <t>    11/20/24</t>
+  </si>
+  <si>
+    <t>    11/21/24</t>
+  </si>
+  <si>
+    <t>    11/22/24</t>
+  </si>
+  <si>
+    <t>    11/23/24</t>
+  </si>
+  <si>
+    <t>    11/24/24</t>
+  </si>
+  <si>
+    <t>    11/25/24</t>
+  </si>
+  <si>
+    <t>    11/26/24</t>
+  </si>
+  <si>
+    <t>    11/27/24</t>
+  </si>
+  <si>
+    <t>    11/28/24</t>
+  </si>
+  <si>
+    <t>    11/29/24</t>
+  </si>
+  <si>
+    <t>    11/30/24</t>
+  </si>
+  <si>
+    <t>    11/31/24</t>
+  </si>
+  <si>
+    <t>    12/1/24</t>
+  </si>
+  <si>
+    <t>    12/2/24</t>
+  </si>
+  <si>
+    <t>    12/3/24</t>
+  </si>
+  <si>
+    <t>    12/4/24</t>
+  </si>
+  <si>
+    <t>    12/5/24</t>
+  </si>
+  <si>
+    <t>    12/6/24</t>
+  </si>
+  <si>
+    <t>    12/7/24</t>
+  </si>
+  <si>
+    <t>    12/8/24</t>
+  </si>
+  <si>
+    <t>    12/9/24</t>
+  </si>
+  <si>
+    <t>    12/10/24</t>
+  </si>
+  <si>
+    <t>    12/11/24</t>
+  </si>
+  <si>
+    <t>    12/12/24</t>
+  </si>
+  <si>
+    <t>    12/13/24</t>
+  </si>
+  <si>
+    <t>    12/14/24</t>
+  </si>
+  <si>
+    <t>    12/15/24</t>
+  </si>
+  <si>
+    <t>    12/16/24</t>
+  </si>
+  <si>
+    <t>    12/17/24</t>
+  </si>
+  <si>
+    <t>    12/18/24</t>
+  </si>
+  <si>
+    <t>    12/19/24</t>
+  </si>
+  <si>
+    <t>    12/20/24</t>
+  </si>
+  <si>
+    <t>    12/21/24</t>
+  </si>
+  <si>
+    <t>    12/22/24</t>
+  </si>
+  <si>
+    <t>    12/23/24</t>
+  </si>
+  <si>
+    <t>    12/24/24</t>
+  </si>
+  <si>
+    <t>    12/25/24</t>
+  </si>
+  <si>
+    <t>    12/26/24</t>
+  </si>
+  <si>
+    <t>    12/27/24</t>
+  </si>
+  <si>
+    <t>    12/28/24</t>
+  </si>
+  <si>
+    <t>    12/29/24</t>
+  </si>
+  <si>
+    <t>    12/30/24</t>
   </si>
 </sst>
 </file>
@@ -98,10 +461,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -435,8 +801,8 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2">
-        <v>45566</v>
+      <c r="E2" s="3">
+        <v>45536</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -458,8 +824,8 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2">
-        <v>45567</v>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -481,8 +847,8 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2">
-        <v>45568</v>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -504,8 +870,8 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2">
-        <v>45569</v>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
@@ -527,8 +893,8 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="2">
-        <v>45570</v>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -550,8 +916,8 @@
       <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="2">
-        <v>45571</v>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -573,8 +939,8 @@
       <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2">
-        <v>45572</v>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -596,8 +962,8 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="2">
-        <v>45573</v>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>8</v>
@@ -619,8 +985,8 @@
       <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="2">
-        <v>45574</v>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -642,8 +1008,8 @@
       <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="2">
-        <v>45575</v>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -665,8 +1031,8 @@
       <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="2">
-        <v>45576</v>
+      <c r="E12" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -688,8 +1054,8 @@
       <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="2">
-        <v>45577</v>
+      <c r="E13" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
@@ -711,8 +1077,8 @@
       <c r="D14" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="2">
-        <v>45578</v>
+      <c r="E14" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
@@ -734,8 +1100,8 @@
       <c r="D15" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="2">
-        <v>45579</v>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
@@ -757,8 +1123,8 @@
       <c r="D16" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="2">
-        <v>45580</v>
+      <c r="E16" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -780,8 +1146,8 @@
       <c r="D17" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="2">
-        <v>45581</v>
+      <c r="E17" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
@@ -803,8 +1169,8 @@
       <c r="D18" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="2">
-        <v>45582</v>
+      <c r="E18" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
@@ -826,8 +1192,8 @@
       <c r="D19" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="2">
-        <v>45583</v>
+      <c r="E19" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
@@ -849,8 +1215,8 @@
       <c r="D20" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="2">
-        <v>45584</v>
+      <c r="E20" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
@@ -872,8 +1238,8 @@
       <c r="D21" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="2">
-        <v>45585</v>
+      <c r="E21" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>
@@ -895,8 +1261,8 @@
       <c r="D22" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="2">
-        <v>45586</v>
+      <c r="E22" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>8</v>
@@ -918,8 +1284,8 @@
       <c r="D23" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="2">
-        <v>45587</v>
+      <c r="E23" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>8</v>
@@ -941,8 +1307,8 @@
       <c r="D24" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="2">
-        <v>45588</v>
+      <c r="E24" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>8</v>
@@ -964,8 +1330,8 @@
       <c r="D25" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="2">
-        <v>45589</v>
+      <c r="E25" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>8</v>
@@ -987,8 +1353,8 @@
       <c r="D26" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="2">
-        <v>45590</v>
+      <c r="E26" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>8</v>
@@ -1010,8 +1376,8 @@
       <c r="D27" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="2">
-        <v>45591</v>
+      <c r="E27" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>8</v>
@@ -1033,8 +1399,8 @@
       <c r="D28" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="2">
-        <v>45592</v>
+      <c r="E28" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>8</v>
@@ -1056,8 +1422,8 @@
       <c r="D29" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="2">
-        <v>45593</v>
+      <c r="E29" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>8</v>
@@ -1079,8 +1445,8 @@
       <c r="D30" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="2">
-        <v>45594</v>
+      <c r="E30" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>8</v>
@@ -1102,8 +1468,8 @@
       <c r="D31" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="2">
-        <v>45595</v>
+      <c r="E31" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>8</v>
@@ -1125,8 +1491,8 @@
       <c r="D32" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="2">
-        <v>45596</v>
+      <c r="E32" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>8</v>
@@ -1148,8 +1514,8 @@
       <c r="D33" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="2">
-        <v>45597</v>
+      <c r="E33" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>8</v>
@@ -1171,8 +1537,8 @@
       <c r="D34" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="2">
-        <v>45598</v>
+      <c r="E34" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>8</v>
@@ -1194,8 +1560,8 @@
       <c r="D35" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="2">
-        <v>45599</v>
+      <c r="E35" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>8</v>
@@ -1217,8 +1583,8 @@
       <c r="D36" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="2">
-        <v>45600</v>
+      <c r="E36" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>8</v>
@@ -1240,8 +1606,8 @@
       <c r="D37" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="2">
-        <v>45601</v>
+      <c r="E37" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>8</v>
@@ -1263,8 +1629,8 @@
       <c r="D38" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="2">
-        <v>45602</v>
+      <c r="E38" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>8</v>
@@ -1286,8 +1652,8 @@
       <c r="D39" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="2">
-        <v>45603</v>
+      <c r="E39" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>8</v>
@@ -1309,8 +1675,8 @@
       <c r="D40" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="2">
-        <v>45604</v>
+      <c r="E40" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>8</v>
@@ -1332,8 +1698,8 @@
       <c r="D41" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="2">
-        <v>45605</v>
+      <c r="E41" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>8</v>
@@ -1355,8 +1721,8 @@
       <c r="D42" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="2">
-        <v>45606</v>
+      <c r="E42" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>8</v>
@@ -1378,8 +1744,8 @@
       <c r="D43" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="2">
-        <v>45607</v>
+      <c r="E43" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>8</v>
@@ -1401,8 +1767,8 @@
       <c r="D44" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="2">
-        <v>45608</v>
+      <c r="E44" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>8</v>
@@ -1424,8 +1790,8 @@
       <c r="D45" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="2">
-        <v>45609</v>
+      <c r="E45" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>8</v>
@@ -1447,8 +1813,8 @@
       <c r="D46" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="2">
-        <v>45610</v>
+      <c r="E46" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>8</v>
@@ -1470,8 +1836,8 @@
       <c r="D47" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="2">
-        <v>45611</v>
+      <c r="E47" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>8</v>
@@ -1493,8 +1859,8 @@
       <c r="D48" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="2">
-        <v>45612</v>
+      <c r="E48" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>8</v>
@@ -1516,8 +1882,8 @@
       <c r="D49" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="2">
-        <v>45613</v>
+      <c r="E49" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>8</v>
@@ -1539,8 +1905,8 @@
       <c r="D50" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="2">
-        <v>45614</v>
+      <c r="E50" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>8</v>
@@ -1562,8 +1928,8 @@
       <c r="D51" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="2">
-        <v>45615</v>
+      <c r="E51" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>8</v>
@@ -1585,8 +1951,8 @@
       <c r="D52" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="2">
-        <v>45616</v>
+      <c r="E52" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>8</v>
@@ -1608,8 +1974,8 @@
       <c r="D53" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="2">
-        <v>45617</v>
+      <c r="E53" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>8</v>
@@ -1631,8 +1997,8 @@
       <c r="D54" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="2">
-        <v>45618</v>
+      <c r="E54" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>8</v>
@@ -1654,8 +2020,8 @@
       <c r="D55" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="2">
-        <v>45619</v>
+      <c r="E55" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>8</v>
@@ -1677,8 +2043,8 @@
       <c r="D56" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="2">
-        <v>45620</v>
+      <c r="E56" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>8</v>
@@ -1700,8 +2066,8 @@
       <c r="D57" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="2">
-        <v>45621</v>
+      <c r="E57" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>8</v>
@@ -1723,8 +2089,8 @@
       <c r="D58" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="2">
-        <v>45622</v>
+      <c r="E58" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>8</v>
@@ -1746,8 +2112,8 @@
       <c r="D59" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="2">
-        <v>45623</v>
+      <c r="E59" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>8</v>
@@ -1769,8 +2135,8 @@
       <c r="D60" t="s">
         <v>7</v>
       </c>
-      <c r="E60" s="2">
-        <v>45624</v>
+      <c r="E60" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>8</v>
@@ -1792,8 +2158,8 @@
       <c r="D61" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="2">
-        <v>45625</v>
+      <c r="E61" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>8</v>
@@ -1815,13 +2181,1416 @@
       <c r="D62" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="2">
-        <v>45626</v>
+      <c r="E62" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G62" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>9</v>
       </c>
     </row>
